--- a/documents/competite.xlsx
+++ b/documents/competite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericdequartel/Developer/ict4vip/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB26C13-B0CA-9C46-AE72-563F20B3EB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17942022-D26E-B140-B397-253122769653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{C18E9B14-16FF-8345-9F89-97B50C97A45F}"/>
+    <workbookView xWindow="1100" yWindow="1400" windowWidth="28040" windowHeight="17440" xr2:uid="{C18E9B14-16FF-8345-9F89-97B50C97A45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>feijenoord</t>
+  </si>
+  <si>
+    <t>psv</t>
+  </si>
+  <si>
+    <t>fc-utrecht</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +399,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA11E06-D04B-564B-B9EE-B9BA088769D8}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>